--- a/medicine/Pharmacie/Classe_ATC_D01/Classe_ATC_D01.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_D01/Classe_ATC_D01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC D01, dénommée « Antimycosiques à usage dermatologique », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QD01[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique D de la classification, intitulé « Dermatologie ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC D01, dénommée « Antimycosiques à usage dermatologique », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QD01. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique D de la classification, intitulé « Dermatologie ».
 </t>
         </is>
       </c>
@@ -513,17 +525,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>D01AA Antibiotiques à usage topique
-D01AA01 Nystatine
+          <t>D01AA Antibiotiques à usage topique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D01AA01 Nystatine
 D01AA02 Natamycine
 D01AA03 Hachimycine (en)
 D01AA04 Pécilocine (en)
 D01AA06 Mépartricine (en)
 D01AA07 Pyrrolnitrine (en)
 D01AA08 Griséofulvine
-D01AA20 Associations
-D01AC Dérivés imidazolés et triazolés à usage topique
-D01AC01 Clotrimazole
+D01AA20 Associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D01</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>D01A Antifongiques à usage topique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D01AC Dérivés imidazolés et triazolés à usage topique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D01AC01 Clotrimazole
 D01AC02 Miconazole
 D01AC03 Éconazole
 D01AC04 Chlormidazole (en)
@@ -545,9 +596,43 @@
 D01AC20 Imidazoleés/triazolés en association avec corticostéroïdes
 D01AC52 Miconazole, associations
 D01AC60 Bifonazole, associations
-« QD01AC90 » Énilconazole
-D01AE Autres antifongiques à usage topique
-D01AE01 Bromochlorosalicylanilide (en)
+« QD01AC90 » Énilconazole</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>D01A Antifongiques à usage topique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D01AE Autres antifongiques à usage topique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D01AE01 Bromochlorosalicylanilide (en)
 D01AE02 Méthylrosaniline
 D01AE03 Tribromométacresol (en)
 D01AE04 Acide undécylénique
@@ -577,34 +662,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Classe_ATC_D01</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classe_ATC_D01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>D01B Antifongiques à usage systémique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D01BA Antifongiques à usage systémique
-D01BA01 Griséofulvine
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D01BA Antifongiques à usage systémique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D01BA01 Griséofulvine
 D01BA02 Terbinafine</t>
         </is>
       </c>
